--- a/biology/Virologie/Hantaviridae/Hantaviridae.xlsx
+++ b/biology/Virologie/Hantaviridae/Hantaviridae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Hantaviridae sont une famille de virus de l'ordre des Bunyavirales. Elle tient son nom de la rivière Hantan en Corée du Sud où une flambée épidémique causée par une espèce de cette famille fut observée[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Hantaviridae sont une famille de virus de l'ordre des Bunyavirales. Elle tient son nom de la rivière Hantan en Corée du Sud où une flambée épidémique causée par une espèce de cette famille fut observée.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>La famille contient les genres suivants[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>La famille contient les genres suivants :
 Actantavirinae
 Actinovirus
 Agantavirinae
